--- a/src/regiaodetran.xlsx
+++ b/src/regiaodetran.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12345"/>
+    <workbookView windowWidth="19890" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="REGIÂO" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">REGIÂO!$A$1:$B$147</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="161">
   <si>
     <t>REGIÃO</t>
   </si>
@@ -505,8 +508,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -526,19 +529,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,8 +564,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,14 +587,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -585,14 +635,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -601,29 +643,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,25 +663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,19 +680,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -698,187 +701,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,41 +892,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -945,8 +913,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +943,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -989,217 +977,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Default" xfId="1"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="40% - Ênfase 4" xfId="4" builtinId="43"/>
-    <cellStyle name="Porcentagem" xfId="5" builtinId="5"/>
-    <cellStyle name="Célula Vinculada" xfId="6" builtinId="24"/>
-    <cellStyle name="Célula de Verificação" xfId="7" builtinId="23"/>
-    <cellStyle name="Moeda [0]" xfId="8" builtinId="7"/>
-    <cellStyle name="Normal 3 2" xfId="9"/>
-    <cellStyle name="20% - Ênfase 3" xfId="10" builtinId="38"/>
-    <cellStyle name="Moeda" xfId="11" builtinId="4"/>
-    <cellStyle name="Hyperlink seguido" xfId="12" builtinId="9"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
-    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
-    <cellStyle name="Observação" xfId="15" builtinId="10"/>
-    <cellStyle name="40% - Ênfase 6" xfId="16" builtinId="51"/>
-    <cellStyle name="Texto de Aviso" xfId="17" builtinId="11"/>
-    <cellStyle name="Título" xfId="18" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="19" builtinId="53"/>
-    <cellStyle name="Ênfase 3" xfId="20" builtinId="37"/>
-    <cellStyle name="Título 1" xfId="21" builtinId="16"/>
-    <cellStyle name="Ênfase 4" xfId="22" builtinId="41"/>
-    <cellStyle name="Título 2" xfId="23" builtinId="17"/>
-    <cellStyle name="Ênfase 5" xfId="24" builtinId="45"/>
-    <cellStyle name="Título 3" xfId="25" builtinId="18"/>
-    <cellStyle name="Ênfase 6" xfId="26" builtinId="49"/>
-    <cellStyle name="Título 4" xfId="27" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="28" builtinId="20"/>
-    <cellStyle name="Saída" xfId="29" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="30" builtinId="22"/>
-    <cellStyle name="Total" xfId="31" builtinId="25"/>
-    <cellStyle name="40% - Ênfase 1" xfId="32" builtinId="31"/>
-    <cellStyle name="Bom" xfId="33" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="34" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="36" builtinId="46"/>
-    <cellStyle name="Ênfase 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="38" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
-    <cellStyle name="20% - Ênfase 6" xfId="40" builtinId="50"/>
-    <cellStyle name="Ênfase 2" xfId="41" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="42" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 2" xfId="43" builtinId="36"/>
-    <cellStyle name="40% - Ênfase 3" xfId="44" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="45" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 4" xfId="46" builtinId="42"/>
-    <cellStyle name="60% - Ênfase 4" xfId="47" builtinId="44"/>
-    <cellStyle name="40% - Ênfase 5" xfId="48" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="49" builtinId="48"/>
-    <cellStyle name="60% - Ênfase 6" xfId="50" builtinId="52"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Note" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
+    <cellStyle name="Title" xfId="17" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="Input" xfId="22" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="23" builtinId="40"/>
+    <cellStyle name="Good" xfId="24" builtinId="26"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="27" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Bad" xfId="30" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 3 2" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1471,7 +1474,7 @@
   <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2215,12 +2218,8 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="3" t="s">
@@ -2655,6 +2654,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B147">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <headerFooter/>
 </worksheet>
